--- a/documentation/budget/effort_remaining.xlsx
+++ b/documentation/budget/effort_remaining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Documents\GitHub\LiveProjectsTemplate\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E64B46-31AD-459C-8D2F-2105941B8B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F6696-1385-4104-8FBF-19B7E895E982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,27 +1367,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.796875" style="2"/>
-    <col min="21" max="21" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.796875" style="2"/>
-    <col min="29" max="32" width="10.796875" style="3"/>
-    <col min="33" max="16384" width="10.796875" style="2"/>
+    <col min="5" max="20" width="10.75" style="2"/>
+    <col min="21" max="21" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.75" style="2"/>
+    <col min="29" max="32" width="10.75" style="3"/>
+    <col min="33" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1442,10 +1442,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,12 +1537,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="K17" s="24"/>
       <c r="L17" s="28">
         <f>SUM(E35:L37)</f>
-        <v>178.0625</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+        <v>142.44999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="27">
         <f>SUM(E35:H37)</f>
-        <v>76.3125</v>
+        <v>61.050000000000004</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>45</v>
@@ -1603,7 +1603,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="27">
         <f>SUM(I35:L37)</f>
-        <v>101.75</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>47</v>
@@ -1618,7 +1618,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25">
         <f>SUM(M35:V37)</f>
-        <v>203.5</v>
+        <v>162.79999999999998</v>
       </c>
       <c r="W18" s="22" t="s">
         <v>48</v>
@@ -1627,10 +1627,10 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="26">
         <f>SUM(W35:Z37)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
         <v>29</v>
@@ -1837,7 +1837,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>96.662500000000009</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>96.662500000000009</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>96.662500000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>96.662500000000009</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2315,72 +2315,72 @@
       <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>12</v>
+      <c r="F28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2392,10 +2392,10 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2847,35 +2847,35 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2887,50 +2887,50 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>483.31250000000006</v>
+        <v>386.65000000000003</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
@@ -3041,13 +3041,13 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>483.31250000000006</v>
+        <v>386.65000000000003</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
@@ -3142,23 +3142,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3171,35 +3171,35 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3211,47 +3211,47 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3260,14 +3260,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>483.3125</v>
+        <v>386.65000000000009</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3276,47 +3276,47 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3325,19 +3325,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>483.3125</v>
+        <v>386.64999999999992</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>483.3125</v>
+        <v>386.64999999999992</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>
@@ -3536,7 +3536,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O24 E29:Z33 F28:Z28 F25:O27 E25:E28">
+  <conditionalFormatting sqref="E24:O24 E29:Z33 F25:O27 E25:E28 F28:Z28">
     <cfRule type="cellIs" dxfId="2" priority="43" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>

--- a/documentation/budget/effort_remaining.xlsx
+++ b/documentation/budget/effort_remaining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aubre\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E64B46-31AD-459C-8D2F-2105941B8B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D1F0F-C3C9-4733-BA3A-174F88593B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -193,9 +195,6 @@
   </si>
   <si>
     <t>Hamza</t>
-  </si>
-  <si>
-    <t>Connor</t>
   </si>
 </sst>
 </file>
@@ -1367,27 +1366,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.796875" style="2"/>
-    <col min="21" max="21" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.796875" style="2"/>
-    <col min="29" max="32" width="10.796875" style="3"/>
-    <col min="33" max="16384" width="10.796875" style="2"/>
+    <col min="5" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="32" width="10.83203125" style="3"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1442,10 +1441,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1485,7 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,12 +1536,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
@@ -1583,10 +1582,10 @@
       <c r="K17" s="24"/>
       <c r="L17" s="28">
         <f>SUM(E35:L37)</f>
-        <v>178.0625</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1593,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="27">
         <f>SUM(E35:H37)</f>
-        <v>76.3125</v>
+        <v>0</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>45</v>
@@ -1603,7 +1602,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="27">
         <f>SUM(I35:L37)</f>
-        <v>101.75</v>
+        <v>0</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>47</v>
@@ -1618,7 +1617,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25">
         <f>SUM(M35:V37)</f>
-        <v>203.5</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="W18" s="22" t="s">
         <v>48</v>
@@ -1627,10 +1626,10 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="26">
         <f>SUM(W35:Z37)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="30" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1786,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
         <v>29</v>
@@ -1837,7 +1836,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="29" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:32" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1956,28 +1955,28 @@
         <v>31</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>31</v>
@@ -1986,13 +1985,13 @@
         <v>31</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>12</v>
@@ -2020,7 +2019,7 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>96.662500000000009</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
@@ -2032,10 +2031,10 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2045,44 +2044,44 @@
       <c r="E25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>12</v>
+      <c r="F25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>12</v>
@@ -2110,7 +2109,7 @@
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
@@ -2122,10 +2121,10 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2135,44 +2134,44 @@
       <c r="E26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>12</v>
+      <c r="F26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>12</v>
@@ -2200,7 +2199,7 @@
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
@@ -2212,10 +2211,10 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2225,44 +2224,44 @@
       <c r="E27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>12</v>
+      <c r="F27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>12</v>
@@ -2290,7 +2289,7 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
@@ -2302,85 +2301,82 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>12</v>
+      <c r="F28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>96.662500000000009</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2392,10 +2388,10 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>96.662500000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2482,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2830,10 +2826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2847,35 +2843,35 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2887,50 +2883,50 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>25.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="str">
         <f>$I10</f>
@@ -3029,7 +3025,7 @@
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>483.31250000000006</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
@@ -3041,24 +3037,24 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>483.31250000000006</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="str">
         <f>$I11</f>
         <v>Stretch</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" ref="E37:Z37" si="8">COUNTIFS(E$24:E$34,$I11) * $F$11</f>
+        <f>COUNTIFS(E$24:E$34,$I11) * $F$11</f>
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E37:Z37" si="8">COUNTIFS(F$24:F$34,$I11) * $F$11</f>
         <v>0</v>
       </c>
       <c r="G37" s="3">
@@ -3142,23 +3138,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3171,35 +3167,35 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3211,47 +3207,47 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>25.4375</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>26</v>
@@ -3260,14 +3256,14 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>483.3125</v>
+        <v>162.79999999999998</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3276,47 +3272,47 @@
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>50.875</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>25.4375</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>50.875</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>26</v>
@@ -3325,19 +3321,19 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>483.3125</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="3" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="47" spans="2:33" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>483.3125</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>
@@ -3522,7 +3518,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z27">
+  <conditionalFormatting sqref="F24:Z28">
     <cfRule type="cellIs" dxfId="5" priority="82" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
@@ -3536,7 +3532,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:O24 E29:Z33 F28:Z28 F25:O27 E25:E28">
+  <conditionalFormatting sqref="E29:Z33 E24:E28">
     <cfRule type="cellIs" dxfId="2" priority="43" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
